--- a/biology/Médecine/1448_en_santé_et_médecine/1448_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1448_en_santé_et_médecine/1448_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1448_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1448_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1448 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1448_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1448_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation par la municipalité d'Augsbourg, ville libre du Saint-Empire, de deux hospices (Siechenhaüser) placés sous le patronage des saints Sébastien et Wolfgang, et voués à l'assistance des indigents atteints d'infirmité ou de maladie chronique[1].
-Pour faire face à une épidémie de peste, la seigneurie de Florence confie la responsabilité de la prise en charge des malades à la direction de l'hôpital Santa Maria Nuova et lève des fonds pour rémunérer quatre médecins, quatre barbiers et soixante infirmières[2].
-Deux maîtres en médecine sont agrégés à l'université d'Avignon, « où la faculté de médecine n'existait encore que de nom, plus de cent ans après la fondation[3] ».
-À Isle-sous-Ramerupt en Champagne, l'exercice de son métier est interdit à l'accoucheuse Adeline Joffrin, pour avoir baptisé un enfant mort-né[4].
-Aharon de Sacerdotu, de Geraci, obtient la licence en médecine et en pharmacie, seul cas connu au XVe siècle en Sicile où le droit d'exercer la pharmacie est accordé à un médecin, et seul cas également où il l'est à un Juif[5],[6].
-1448-1449 : fondation par Philippe le Bon à Ath, dans le comté de Hainaut, de l'hôpital de la Madeleine[7], « pour recevoir et panser charitablement les pauvres malades[8] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation par la municipalité d'Augsbourg, ville libre du Saint-Empire, de deux hospices (Siechenhaüser) placés sous le patronage des saints Sébastien et Wolfgang, et voués à l'assistance des indigents atteints d'infirmité ou de maladie chronique.
+Pour faire face à une épidémie de peste, la seigneurie de Florence confie la responsabilité de la prise en charge des malades à la direction de l'hôpital Santa Maria Nuova et lève des fonds pour rémunérer quatre médecins, quatre barbiers et soixante infirmières.
+Deux maîtres en médecine sont agrégés à l'université d'Avignon, « où la faculté de médecine n'existait encore que de nom, plus de cent ans après la fondation ».
+À Isle-sous-Ramerupt en Champagne, l'exercice de son métier est interdit à l'accoucheuse Adeline Joffrin, pour avoir baptisé un enfant mort-né.
+Aharon de Sacerdotu, de Geraci, obtient la licence en médecine et en pharmacie, seul cas connu au XVe siècle en Sicile où le droit d'exercer la pharmacie est accordé à un médecin, et seul cas également où il l'est à un Juif,.
+1448-1449 : fondation par Philippe le Bon à Ath, dans le comté de Hainaut, de l'hôpital de la Madeleine, « pour recevoir et panser charitablement les pauvres malades ».</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1448_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1448_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1444 ou 1448 : Antonio De Ferrariis (mort en 1517), médecin et humaniste italien, attaché à la cour de Ferdinand Ier à Naples, praticien à Gallipoli dans le Salento, et auteur de nombreux ouvrages dont un traité sur la goutte (De podagra[9]).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1444 ou 1448 : Antonio De Ferrariis (mort en 1517), médecin et humaniste italien, attaché à la cour de Ferdinand Ier à Naples, praticien à Gallipoli dans le Salento, et auteur de nombreux ouvrages dont un traité sur la goutte (De podagra).</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1448_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1448_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,11 +592,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Hugo Bentius (né à une date inconnue), professeur de médecine à Ferrare et à Parme, auteur d'un traité sur les Aphorismes d'Hippocrate et les Commentaires de Galien imprimé pour la première fois à Ferrare en 1493, et de divers autres ouvrages, tous imprimés à Venise[10].
-1445 ou 1448 : Antonius Guainerius (né à une date inconnue), médecin de Padoue, professeur à Pavie, auteur d'ouvrages sur les « fièvres », les « maladies propres aux femmes », les « maladies de la tête[11],[12] ».
-Vers 1447-1448[13] : Giovanni de Concoregio (né vers 1380), professeur de médecine à Milan et Pavie et probablement à Bologne et Florence[14].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hugo Bentius (né à une date inconnue), professeur de médecine à Ferrare et à Parme, auteur d'un traité sur les Aphorismes d'Hippocrate et les Commentaires de Galien imprimé pour la première fois à Ferrare en 1493, et de divers autres ouvrages, tous imprimés à Venise.
+1445 ou 1448 : Antonius Guainerius (né à une date inconnue), médecin de Padoue, professeur à Pavie, auteur d'ouvrages sur les « fièvres », les « maladies propres aux femmes », les « maladies de la tête, ».
+Vers 1447-1448 : Giovanni de Concoregio (né vers 1380), professeur de médecine à Milan et Pavie et probablement à Bologne et Florence.</t>
         </is>
       </c>
     </row>
